--- a/src/Tests/Templates/OutgoingLetters.xlsx
+++ b/src/Tests/Templates/OutgoingLetters.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <x:workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chirkov_ro\Documents\GitHub\rx-util-importdata-net-core\src\Tests\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="17100" windowHeight="9855"/>
-  </bookViews>
-  <sheets>
-    <sheet name="ИсходящиеПисьма" sheetId="1" r:id="rId1"/>
-    <sheet name="Дополнительно" sheetId="2" r:id="rId2"/>
-  </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ИсходящиеПисьма!$A$1:$N$6</definedName>
-  </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
-</workbook>
+  <x:bookViews>
+    <x:workbookView xWindow="480" yWindow="105" windowWidth="17100" windowHeight="9855"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="ИсходящиеПисьма" sheetId="1" r:id="rId1"/>
+    <x:sheet name="Дополнительно" sheetId="2" r:id="rId2"/>
+  </x:sheets>
+  <x:definedNames>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ИсходящиеПисьма!$A$1:$N$6</x:definedName>
+  </x:definedNames>
+  <x:calcPr calcId="152511" refMode="R1C1"/>
+</x:workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -59,125 +59,131 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
-  <si>
-    <t>Содержание</t>
-  </si>
-  <si>
-    <t>Подразделение</t>
-  </si>
-  <si>
-    <t>Примечание</t>
-  </si>
-  <si>
-    <t>Вид документа</t>
-  </si>
-  <si>
-    <t>Файл</t>
-  </si>
-  <si>
-    <t>не найден файл</t>
-  </si>
-  <si>
-    <t>Строка</t>
-  </si>
-  <si>
-    <t>Вид</t>
-  </si>
-  <si>
-    <t>Суть</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>не верная дата</t>
-  </si>
-  <si>
-    <t>Корреспондент</t>
-  </si>
-  <si>
-    <t>Создаются в сотоянии Действующий</t>
-  </si>
-  <si>
-    <t>Дата регистрации</t>
-  </si>
-  <si>
-    <t>не найден корреспондент</t>
-  </si>
-  <si>
-    <t>Журнал для регистрации аналогично договорам</t>
-  </si>
-  <si>
-    <t>Подготовил</t>
-  </si>
-  <si>
-    <t>не найден подготовивший</t>
-  </si>
-  <si>
-    <t>Способ доставки</t>
-  </si>
-  <si>
-    <t>Журнал регистрации</t>
-  </si>
-  <si>
-    <t>Регистрация</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Digital River GmbH</t>
-  </si>
-  <si>
-    <t>Диагностика</t>
-  </si>
-  <si>
-    <t>Отдел продаж</t>
-  </si>
-  <si>
-    <t>1234/523</t>
-  </si>
-  <si>
-    <t>Факс</t>
-  </si>
-  <si>
-    <t>Зарегистрирован</t>
-  </si>
-  <si>
-    <t>Исходящее письмо</t>
-  </si>
-  <si>
-    <t>Итог</t>
-  </si>
-  <si>
-    <t>Дата</t>
-  </si>
-  <si>
-    <t>Подробности</t>
-  </si>
-  <si>
-    <t>Templates\TestDocs\testDoc.txt</t>
-  </si>
-  <si>
-    <t>Белоусова Лидия Александровна</t>
-  </si>
-  <si>
-    <t>Загружен</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>17.05.2023</t>
-  </si>
-  <si>
-    <t>913</t>
-  </si>
-  <si>
-    <t>№</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+  <x:si>
+    <x:t>Содержание</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подразделение</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Примечание</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вид документа</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Файл</x:t>
+  </x:si>
+  <x:si>
+    <x:t>не найден файл</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Строка</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Вид</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Суть</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error</x:t>
+  </x:si>
+  <x:si>
+    <x:t>не верная дата</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Корреспондент</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Создаются в сотоянии Действующий</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дата регистрации</x:t>
+  </x:si>
+  <x:si>
+    <x:t>не найден корреспондент</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Журнал для регистрации аналогично договорам</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подготовил</x:t>
+  </x:si>
+  <x:si>
+    <x:t>не найден подготовивший</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Способ доставки</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Журнал регистрации</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Регистрация</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Digital River GmbH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Диагностика</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отдел продаж</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1234/523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Факс</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Зарегистрирован</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Исходящее письмо</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Итог</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дата</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подробности</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Templates\TestDocs\testDoc.txt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Белоусова Лидия Александровна</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Загружен</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>17.05.2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>913</x:t>
+  </x:si>
+  <x:si>
+    <x:t>№</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24.03.2025</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -902,187 +908,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.1328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.265625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.86328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.3984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="13.3984375" style="11" customWidth="1"/>
-    <col min="14" max="14" width="17.73046875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.86328125" style="11" customWidth="1"/>
-    <col min="16" max="16384" width="9.1328125" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="27">
-        <v>45302</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2"/>
-    </row>
-    <row r="3" spans="1:16" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-    </row>
-    <row r="4" spans="1:16" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-    </row>
-    <row r="5" spans="1:16" ht="13.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="19"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
-    </row>
-  </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:N6"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:dimension ref="A1:P6"/>
+  <x:sheetViews>
+    <x:sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <x:pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <x:selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <x:cols>
+    <x:col min="1" max="1" width="5.1328125" style="4" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="13.265625" style="13" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="15.59765625" style="11" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="16.3984375" style="11" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="13.1328125" style="11" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="15.59765625" style="11" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="21.86328125" style="11" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="44.3984375" style="11" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="9" width="13.3984375" style="11" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="13" width="13.3984375" style="11" customWidth="1"/>
+    <x:col min="14" max="14" width="17.73046875" style="11" bestFit="1" customWidth="1"/>
+    <x:col min="15" max="15" width="15.86328125" style="11" customWidth="1"/>
+    <x:col min="16" max="16384" width="9.1328125" style="11"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:16" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.45">
+      <x:c r="A1" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D1" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G1" s="18" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H1" s="24" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="I1" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J1" s="25" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="K1" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L1" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="M1" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N1" s="39" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O1" s="40" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:16" s="31" customFormat="1" ht="26.25" x14ac:dyDescent="0.45">
+      <x:c r="A2" s="26" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B2" s="27">
+        <x:v>45302</x:v>
+      </x:c>
+      <x:c r="C2" s="28" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D2" s="29" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E2" s="28" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F2" s="28" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G2" s="34" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H2" s="32" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I2" s="30" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J2" s="33" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="K2" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L2" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="M2" s="33" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="N2" s="37" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="O2" s="38" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="P2"/>
+    </x:row>
+    <x:row r="3" spans="1:16" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.45">
+      <x:c r="A3" s="1"/>
+      <x:c r="B3" s="1"/>
+      <x:c r="C3" s="18"/>
+      <x:c r="D3" s="2"/>
+      <x:c r="E3" s="1"/>
+      <x:c r="F3" s="1"/>
+      <x:c r="G3" s="35"/>
+      <x:c r="H3" s="21"/>
+      <x:c r="I3" s="22"/>
+      <x:c r="J3" s="22"/>
+      <x:c r="K3" s="1"/>
+      <x:c r="L3" s="1"/>
+      <x:c r="M3" s="22"/>
+      <x:c r="N3" s="19"/>
+      <x:c r="O3" s="19"/>
+    </x:row>
+    <x:row r="4" spans="1:16" s="4" customFormat="1" ht="13.5" x14ac:dyDescent="0.45">
+      <x:c r="A4" s="1"/>
+      <x:c r="B4" s="1"/>
+      <x:c r="C4" s="18"/>
+      <x:c r="D4" s="2"/>
+      <x:c r="E4" s="1"/>
+      <x:c r="F4" s="1"/>
+      <x:c r="G4" s="35"/>
+      <x:c r="H4" s="21"/>
+      <x:c r="I4" s="22"/>
+      <x:c r="J4" s="22"/>
+      <x:c r="K4" s="1"/>
+      <x:c r="L4" s="1"/>
+      <x:c r="M4" s="22"/>
+      <x:c r="N4" s="19"/>
+      <x:c r="O4" s="19"/>
+    </x:row>
+    <x:row r="5" spans="1:16" ht="13.5" x14ac:dyDescent="0.45">
+      <x:c r="A5" s="5"/>
+      <x:c r="B5" s="6"/>
+      <x:c r="C5" s="7"/>
+      <x:c r="D5" s="8"/>
+      <x:c r="E5" s="10"/>
+      <x:c r="F5" s="10"/>
+      <x:c r="G5" s="36"/>
+      <x:c r="H5" s="23"/>
+      <x:c r="I5" s="9"/>
+      <x:c r="J5" s="9"/>
+      <x:c r="K5" s="10"/>
+      <x:c r="L5" s="10"/>
+      <x:c r="M5" s="9"/>
+      <x:c r="N5" s="20"/>
+      <x:c r="O5" s="19"/>
+    </x:row>
+    <x:row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <x:c r="A6" s="12"/>
+    </x:row>
+  </x:sheetData>
+  <x:sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <x:autoFilter ref="A1:N6"/>
+  <x:pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <x:legacyDrawing r:id="rId2"/>
+</x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
